--- a/전기2학년영타수행.xlsx
+++ b/전기2학년영타수행.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="214" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,42 @@
   </si>
   <si>
     <t>남도균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김세준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권보성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태홍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -583,32 +619,38 @@
         <v>21415</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>21416</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>21417</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>21418</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21419</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21420</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21421</v>
       </c>
@@ -616,6 +658,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -623,11 +666,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -652,6 +698,15 @@
       <c r="A3">
         <v>21502</v>
       </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43606</v>
+      </c>
+      <c r="D3">
+        <v>217</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -667,16 +722,43 @@
       <c r="A6">
         <v>21505</v>
       </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43606</v>
+      </c>
+      <c r="D6">
+        <v>230</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>21506</v>
       </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43606</v>
+      </c>
+      <c r="D7">
+        <v>231</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>21507</v>
       </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43606</v>
+      </c>
+      <c r="D8">
+        <v>223</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -692,11 +774,29 @@
       <c r="A11">
         <v>21510</v>
       </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43606</v>
+      </c>
+      <c r="D11">
+        <v>223</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>21511</v>
       </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43606</v>
+      </c>
+      <c r="D12">
+        <v>264</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -716,6 +816,15 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21515</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43606</v>
+      </c>
+      <c r="D16">
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/전기2학년영타수행.xlsx
+++ b/전기2학년영타수행.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="9885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="214" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>김태홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권동훈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +671,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -693,6 +697,15 @@
       <c r="A2">
         <v>21501</v>
       </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43620</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
